--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>11.0328640517874</v>
+        <v>0.07171233333333334</v>
       </c>
       <c r="H2">
-        <v>11.0328640517874</v>
+        <v>0.215137</v>
       </c>
       <c r="I2">
-        <v>0.8701507538376233</v>
+        <v>0.004947717871829782</v>
       </c>
       <c r="J2">
-        <v>0.8701507538376233</v>
+        <v>0.004947717871829783</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7543296438973</v>
+        <v>44.69746666666666</v>
       </c>
       <c r="N2">
-        <v>11.7543296438973</v>
+        <v>134.0924</v>
       </c>
       <c r="O2">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="P2">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="Q2">
-        <v>129.6839209810135</v>
+        <v>3.205359628755555</v>
       </c>
       <c r="R2">
-        <v>129.6839209810135</v>
+        <v>28.8482366588</v>
       </c>
       <c r="S2">
-        <v>0.3234505278986169</v>
+        <v>0.003376308918570237</v>
       </c>
       <c r="T2">
-        <v>0.3234505278986169</v>
+        <v>0.003376308918570237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>11.0328640517874</v>
+        <v>0.07171233333333334</v>
       </c>
       <c r="H3">
-        <v>11.0328640517874</v>
+        <v>0.215137</v>
       </c>
       <c r="I3">
-        <v>0.8701507538376233</v>
+        <v>0.004947717871829782</v>
       </c>
       <c r="J3">
-        <v>0.8701507538376233</v>
+        <v>0.004947717871829783</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4386145851949</v>
+        <v>18.63243533333333</v>
       </c>
       <c r="N3">
-        <v>18.4386145851949</v>
+        <v>55.897306</v>
       </c>
       <c r="O3">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="P3">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="Q3">
-        <v>203.4307280217596</v>
+        <v>1.336175413435778</v>
       </c>
       <c r="R3">
-        <v>203.4307280217596</v>
+        <v>12.025578720922</v>
       </c>
       <c r="S3">
-        <v>0.5073857720501187</v>
+        <v>0.001407436758323735</v>
       </c>
       <c r="T3">
-        <v>0.5073857720501187</v>
+        <v>0.001407436758323735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>11.0328640517874</v>
+        <v>0.07171233333333334</v>
       </c>
       <c r="H4">
-        <v>11.0328640517874</v>
+        <v>0.215137</v>
       </c>
       <c r="I4">
-        <v>0.8701507538376233</v>
+        <v>0.004947717871829782</v>
       </c>
       <c r="J4">
-        <v>0.8701507538376233</v>
+        <v>0.004947717871829783</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.42870396218563</v>
+        <v>2.170755666666667</v>
       </c>
       <c r="N4">
-        <v>1.42870396218563</v>
+        <v>6.512267</v>
       </c>
       <c r="O4">
-        <v>0.0451811984480843</v>
+        <v>0.03314097512903853</v>
       </c>
       <c r="P4">
-        <v>0.0451811984480843</v>
+        <v>0.03314097512903853</v>
       </c>
       <c r="Q4">
-        <v>15.76269658504406</v>
+        <v>0.1556699539532223</v>
       </c>
       <c r="R4">
-        <v>15.76269658504406</v>
+        <v>1.401029585579</v>
       </c>
       <c r="S4">
-        <v>0.03931445388888782</v>
+        <v>0.0001639721949358103</v>
       </c>
       <c r="T4">
-        <v>0.03931445388888782</v>
+        <v>0.0001639721949358102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.64639181638164</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H5">
-        <v>1.64639181638164</v>
+        <v>33.155356</v>
       </c>
       <c r="I5">
-        <v>0.1298492461623766</v>
+        <v>0.7625064374239614</v>
       </c>
       <c r="J5">
-        <v>0.1298492461623766</v>
+        <v>0.7625064374239615</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.7543296438973</v>
+        <v>44.69746666666666</v>
       </c>
       <c r="N5">
-        <v>11.7543296438973</v>
+        <v>134.0924</v>
       </c>
       <c r="O5">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="P5">
-        <v>0.371717804612711</v>
+        <v>0.6823972194925493</v>
       </c>
       <c r="Q5">
-        <v>19.35223213276463</v>
+        <v>493.9868065438222</v>
       </c>
       <c r="R5">
-        <v>19.35223213276463</v>
+        <v>4445.881258894399</v>
       </c>
       <c r="S5">
-        <v>0.04826727671409413</v>
+        <v>0.5203322727432808</v>
       </c>
       <c r="T5">
-        <v>0.04826727671409413</v>
+        <v>0.5203322727432809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.64639181638164</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H6">
-        <v>1.64639181638164</v>
+        <v>33.155356</v>
       </c>
       <c r="I6">
-        <v>0.1298492461623766</v>
+        <v>0.7625064374239614</v>
       </c>
       <c r="J6">
-        <v>0.1298492461623766</v>
+        <v>0.7625064374239615</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.4386145851949</v>
+        <v>18.63243533333333</v>
       </c>
       <c r="N6">
-        <v>18.4386145851949</v>
+        <v>55.897306</v>
       </c>
       <c r="O6">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="P6">
-        <v>0.5831009969392047</v>
+        <v>0.2844618053784121</v>
       </c>
       <c r="Q6">
-        <v>30.35718415848003</v>
+        <v>205.9216755412151</v>
       </c>
       <c r="R6">
-        <v>30.35718415848003</v>
+        <v>1853.295079870936</v>
       </c>
       <c r="S6">
-        <v>0.075715224889086</v>
+        <v>0.2169039578022813</v>
       </c>
       <c r="T6">
-        <v>0.075715224889086</v>
+        <v>0.2169039578022813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.05178533333333</v>
+      </c>
+      <c r="H7">
+        <v>33.155356</v>
+      </c>
+      <c r="I7">
+        <v>0.7625064374239614</v>
+      </c>
+      <c r="J7">
+        <v>0.7625064374239615</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.170755666666667</v>
+      </c>
+      <c r="N7">
+        <v>6.512267</v>
+      </c>
+      <c r="O7">
+        <v>0.03314097512903853</v>
+      </c>
+      <c r="P7">
+        <v>0.03314097512903853</v>
+      </c>
+      <c r="Q7">
+        <v>23.99072563911689</v>
+      </c>
+      <c r="R7">
+        <v>215.916530752052</v>
+      </c>
+      <c r="S7">
+        <v>0.02527020687839928</v>
+      </c>
+      <c r="T7">
+        <v>0.02527020687839928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.370524666666666</v>
+      </c>
+      <c r="H8">
+        <v>10.111574</v>
+      </c>
+      <c r="I8">
+        <v>0.2325458447042087</v>
+      </c>
+      <c r="J8">
+        <v>0.2325458447042088</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>44.69746666666666</v>
+      </c>
+      <c r="N8">
+        <v>134.0924</v>
+      </c>
+      <c r="O8">
+        <v>0.6823972194925493</v>
+      </c>
+      <c r="P8">
+        <v>0.6823972194925493</v>
+      </c>
+      <c r="Q8">
+        <v>150.6539139375111</v>
+      </c>
+      <c r="R8">
+        <v>1355.8852254376</v>
+      </c>
+      <c r="S8">
+        <v>0.1586886378306982</v>
+      </c>
+      <c r="T8">
+        <v>0.1586886378306982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.64639181638164</v>
-      </c>
-      <c r="H7">
-        <v>1.64639181638164</v>
-      </c>
-      <c r="I7">
-        <v>0.1298492461623766</v>
-      </c>
-      <c r="J7">
-        <v>0.1298492461623766</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.42870396218563</v>
-      </c>
-      <c r="N7">
-        <v>1.42870396218563</v>
-      </c>
-      <c r="O7">
-        <v>0.0451811984480843</v>
-      </c>
-      <c r="P7">
-        <v>0.0451811984480843</v>
-      </c>
-      <c r="Q7">
-        <v>2.352206511374445</v>
-      </c>
-      <c r="R7">
-        <v>2.352206511374445</v>
-      </c>
-      <c r="S7">
-        <v>0.005866744559196487</v>
-      </c>
-      <c r="T7">
-        <v>0.005866744559196487</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.370524666666666</v>
+      </c>
+      <c r="H9">
+        <v>10.111574</v>
+      </c>
+      <c r="I9">
+        <v>0.2325458447042087</v>
+      </c>
+      <c r="J9">
+        <v>0.2325458447042088</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.63243533333333</v>
+      </c>
+      <c r="N9">
+        <v>55.897306</v>
+      </c>
+      <c r="O9">
+        <v>0.2844618053784121</v>
+      </c>
+      <c r="P9">
+        <v>0.2844618053784121</v>
+      </c>
+      <c r="Q9">
+        <v>62.80108289107155</v>
+      </c>
+      <c r="R9">
+        <v>565.2097460196439</v>
+      </c>
+      <c r="S9">
+        <v>0.06615041081780708</v>
+      </c>
+      <c r="T9">
+        <v>0.06615041081780709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.370524666666666</v>
+      </c>
+      <c r="H10">
+        <v>10.111574</v>
+      </c>
+      <c r="I10">
+        <v>0.2325458447042087</v>
+      </c>
+      <c r="J10">
+        <v>0.2325458447042088</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.170755666666667</v>
+      </c>
+      <c r="N10">
+        <v>6.512267</v>
+      </c>
+      <c r="O10">
+        <v>0.03314097512903853</v>
+      </c>
+      <c r="P10">
+        <v>0.03314097512903853</v>
+      </c>
+      <c r="Q10">
+        <v>7.316585519806445</v>
+      </c>
+      <c r="R10">
+        <v>65.849269678258</v>
+      </c>
+      <c r="S10">
+        <v>0.007706796055703439</v>
+      </c>
+      <c r="T10">
+        <v>0.007706796055703439</v>
       </c>
     </row>
   </sheetData>
